--- a/ExcelSheets/TestData_Write.xlsx
+++ b/ExcelSheets/TestData_Write.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>First Name</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Position</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -58,6 +52,9 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>shashank</t>
   </si>
 </sst>
 </file>
@@ -413,14 +410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -436,57 +433,57 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +495,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
@@ -510,7 +509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
